--- a/2-Empirical-Evidence/raw_data/Utah.xlsx
+++ b/2-Empirical-Evidence/raw_data/Utah.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN490010000000003</t>
@@ -886,10 +902,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>4.0</v>
@@ -984,10 +1012,20 @@
       <c r="AF5" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>75.0</v>
@@ -1082,10 +1120,20 @@
       <c r="AF6" t="n" s="8">
         <v>117.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>1780.0</v>
@@ -1180,10 +1228,20 @@
       <c r="AF7" t="n" s="8">
         <v>2728.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>2754.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>2773.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>2917.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>1855.0</v>
@@ -1278,10 +1336,20 @@
       <c r="AF8" t="n" s="8">
         <v>2845.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>2836.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>2853.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>3006.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>4.5</v>
@@ -1376,10 +1444,20 @@
       <c r="AF9" t="n" s="10">
         <v>4.5</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>724.0</v>
@@ -1474,10 +1552,20 @@
       <c r="AF10" t="n" s="8">
         <v>1193.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>679.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>636.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>712.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>15401.0</v>
@@ -1572,10 +1660,20 @@
       <c r="AF11" t="n" s="8">
         <v>25502.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>26247.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>26991.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>27943.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>16125.0</v>
@@ -1670,10 +1768,20 @@
       <c r="AF12" t="n" s="8">
         <v>26695.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>26926.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>27627.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>28655.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>4.0</v>
@@ -1768,10 +1876,20 @@
       <c r="AF13" t="n" s="10">
         <v>3.0</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>1313.0</v>
@@ -1866,10 +1984,20 @@
       <c r="AF14" t="n" s="8">
         <v>1987.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>1400.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>1456.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>1637.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>31804.0</v>
@@ -1964,10 +2092,20 @@
       <c r="AF15" t="n" s="8">
         <v>64038.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>67471.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>69424.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>69954.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>33117.0</v>
@@ -2062,10 +2200,20 @@
       <c r="AF16" t="n" s="8">
         <v>66025.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>68871.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>70880.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>71591.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>7.8</v>
@@ -2160,10 +2308,20 @@
       <c r="AF17" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>671.0</v>
@@ -2258,10 +2416,20 @@
       <c r="AF18" t="n" s="8">
         <v>464.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>334.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>303.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>312.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>7948.0</v>
@@ -2356,10 +2524,20 @@
       <c r="AF19" t="n" s="8">
         <v>8156.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>8102.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>8129.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>8176.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>8619.0</v>
@@ -2454,10 +2632,20 @@
       <c r="AF20" t="n" s="8">
         <v>8620.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>8436.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>8432.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>8488.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>1.7</v>
@@ -2552,10 +2740,20 @@
       <c r="AF21" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>6.0</v>
@@ -2650,10 +2848,20 @@
       <c r="AF22" t="n" s="8">
         <v>19.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>346.0</v>
@@ -2748,10 +2956,20 @@
       <c r="AF23" t="n" s="8">
         <v>394.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>396.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>389.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>390.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>352.0</v>
@@ -2846,10 +3064,20 @@
       <c r="AF24" t="n" s="8">
         <v>413.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>408.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>407.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>4.0</v>
@@ -2944,10 +3172,20 @@
       <c r="AF25" t="n" s="10">
         <v>4.2</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>3436.0</v>
@@ -3042,10 +3280,20 @@
       <c r="AF26" t="n" s="8">
         <v>7451.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>4477.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>4064.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>4603.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>83250.0</v>
@@ -3140,10 +3388,20 @@
       <c r="AF27" t="n" s="8">
         <v>169150.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>174918.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>179956.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>185764.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>86686.0</v>
@@ -3238,10 +3496,20 @@
       <c r="AF28" t="n" s="8">
         <v>176601.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>179395.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>184020.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>190367.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>8.1</v>
@@ -3336,10 +3604,20 @@
       <c r="AF29" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>404.0</v>
@@ -3434,10 +3712,20 @@
       <c r="AF30" t="n" s="8">
         <v>627.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>379.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>263.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>246.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>4590.0</v>
@@ -3532,10 +3820,20 @@
       <c r="AF31" t="n" s="8">
         <v>7227.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>7381.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>7744.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>8308.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>4994.0</v>
@@ -3630,10 +3928,20 @@
       <c r="AF32" t="n" s="8">
         <v>7854.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>7760.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>8007.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>8554.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>8.2</v>
@@ -3728,10 +4036,20 @@
       <c r="AF33" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>341.0</v>
@@ -3826,10 +4144,20 @@
       <c r="AF34" t="n" s="8">
         <v>213.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>147.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>3828.0</v>
@@ -3924,10 +4252,20 @@
       <c r="AF35" t="n" s="8">
         <v>4198.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>4275.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>4373.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>4608.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>4169.0</v>
@@ -4022,10 +4360,20 @@
       <c r="AF36" t="n" s="8">
         <v>4411.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>4450.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>4524.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>4755.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>9.3</v>
@@ -4120,10 +4468,20 @@
       <c r="AF37" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>192.0</v>
@@ -4218,10 +4576,20 @@
       <c r="AF38" t="n" s="8">
         <v>277.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>179.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>177.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>181.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>1870.0</v>
@@ -4316,10 +4684,20 @@
       <c r="AF39" t="n" s="8">
         <v>2382.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>2603.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>2765.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>2636.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>2062.0</v>
@@ -4414,10 +4792,20 @@
       <c r="AF40" t="n" s="8">
         <v>2659.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>2782.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>2942.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>2817.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>7.3</v>
@@ -4512,10 +4900,20 @@
       <c r="AF41" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>242.0</v>
@@ -4610,10 +5008,20 @@
       <c r="AF42" t="n" s="8">
         <v>603.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>291.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>230.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>253.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>3073.0</v>
@@ -4708,10 +5116,20 @@
       <c r="AF43" t="n" s="8">
         <v>5653.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>6317.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>6727.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>6810.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>3315.0</v>
@@ -4806,10 +5224,20 @@
       <c r="AF44" t="n" s="8">
         <v>6256.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>6608.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>6957.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>7063.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>5.1</v>
@@ -4904,10 +5332,20 @@
       <c r="AF45" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>462.0</v>
@@ -5002,10 +5440,20 @@
       <c r="AF46" t="n" s="8">
         <v>1172.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>767.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>694.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>756.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>8683.0</v>
@@ -5100,10 +5548,20 @@
       <c r="AF47" t="n" s="8">
         <v>24156.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>25705.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>27074.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>28343.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>9145.0</v>
@@ -5198,10 +5656,20 @@
       <c r="AF48" t="n" s="8">
         <v>25328.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>26472.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>27768.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>29099.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>4.8</v>
@@ -5296,10 +5764,20 @@
       <c r="AF49" t="n" s="10">
         <v>3.0</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>128.0</v>
@@ -5394,10 +5872,20 @@
       <c r="AF50" t="n" s="8">
         <v>178.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>154.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>2563.0</v>
@@ -5492,10 +5980,20 @@
       <c r="AF51" t="n" s="8">
         <v>5678.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>6030.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>6281.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>6404.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>2691.0</v>
@@ -5590,10 +6088,20 @@
       <c r="AF52" t="n" s="8">
         <v>5856.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>6157.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>6410.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>6558.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>6.0</v>
@@ -5688,10 +6196,20 @@
       <c r="AF53" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>153.0</v>
@@ -5786,10 +6304,20 @@
       <c r="AF54" t="n" s="8">
         <v>211.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>2377.0</v>
@@ -5884,10 +6412,20 @@
       <c r="AF55" t="n" s="8">
         <v>3673.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>3908.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>4014.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>4113.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>2530.0</v>
@@ -5982,10 +6520,20 @@
       <c r="AF56" t="n" s="8">
         <v>3884.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>4026.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>4119.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>4229.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>4.5</v>
@@ -6080,10 +6628,20 @@
       <c r="AF57" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>210.0</v>
@@ -6178,10 +6736,20 @@
       <c r="AF58" t="n" s="8">
         <v>200.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>153.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>4420.0</v>
@@ -6276,10 +6844,20 @@
       <c r="AF59" t="n" s="8">
         <v>5840.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>5902.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>6111.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>6379.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>4630.0</v>
@@ -6374,10 +6952,20 @@
       <c r="AF60" t="n" s="8">
         <v>6040.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>6050.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>6256.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>6532.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>5.1</v>
@@ -6472,10 +7060,20 @@
       <c r="AF61" t="n" s="10">
         <v>3.4</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>129.0</v>
@@ -6570,10 +7168,20 @@
       <c r="AF62" t="n" s="8">
         <v>194.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>2376.0</v>
@@ -6668,10 +7276,20 @@
       <c r="AF63" t="n" s="8">
         <v>5480.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>5659.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>5822.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>6015.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>2505.0</v>
@@ -6766,10 +7384,20 @@
       <c r="AF64" t="n" s="8">
         <v>5674.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>5784.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>5943.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>6143.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>7.3</v>
@@ -6864,10 +7492,20 @@
       <c r="AF65" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>34.0</v>
@@ -6962,10 +7600,20 @@
       <c r="AF66" t="n" s="8">
         <v>30.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>434.0</v>
@@ -7060,10 +7708,20 @@
       <c r="AF67" t="n" s="8">
         <v>452.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>462.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>490.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>489.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>468.0</v>
@@ -7158,10 +7816,20 @@
       <c r="AF68" t="n" s="8">
         <v>482.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>484.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>511.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>514.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>2.1</v>
@@ -7256,10 +7924,20 @@
       <c r="AF69" t="n" s="10">
         <v>3.5</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>15.0</v>
@@ -7354,10 +8032,20 @@
       <c r="AF70" t="n" s="8">
         <v>41.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>701.0</v>
@@ -7452,10 +8140,20 @@
       <c r="AF71" t="n" s="8">
         <v>1124.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>1248.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>1213.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>1322.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>716.0</v>
@@ -7550,10 +8248,20 @@
       <c r="AF72" t="n" s="8">
         <v>1165.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>1277.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>1245.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>1354.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>3.8</v>
@@ -7648,10 +8356,20 @@
       <c r="AF73" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>13962.0</v>
@@ -7746,10 +8464,20 @@
       <c r="AF74" t="n" s="8">
         <v>33781.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>18529.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>15925.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>18398.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>355680.0</v>
@@ -7844,10 +8572,20 @@
       <c r="AF75" t="n" s="8">
         <v>611284.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>636093.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>658798.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>675303.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>369642.0</v>
@@ -7942,10 +8680,20 @@
       <c r="AF76" t="n" s="8">
         <v>645065.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>654622.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>674723.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>693701.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>8.9</v>
@@ -8040,10 +8788,20 @@
       <c r="AF77" t="n" s="10">
         <v>10.5</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>365.0</v>
@@ -8138,10 +8896,20 @@
       <c r="AF78" t="n" s="8">
         <v>576.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>344.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>250.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>236.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>3758.0</v>
@@ -8236,10 +9004,20 @@
       <c r="AF79" t="n" s="8">
         <v>4934.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>5144.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>5350.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>5640.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>4123.0</v>
@@ -8334,10 +9112,20 @@
       <c r="AF80" t="n" s="8">
         <v>5510.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>5488.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>5600.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>5876.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>10.8</v>
@@ -8432,10 +9220,20 @@
       <c r="AF81" t="n" s="10">
         <v>3.8</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>689.0</v>
@@ -8530,10 +9328,20 @@
       <c r="AF82" t="n" s="8">
         <v>492.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>378.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>380.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>408.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>5715.0</v>
@@ -8628,10 +9436,20 @@
       <c r="AF83" t="n" s="8">
         <v>12290.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>12690.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>13145.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>13702.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>6404.0</v>
@@ -8726,10 +9544,20 @@
       <c r="AF84" t="n" s="8">
         <v>12782.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>13068.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>13525.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>14110.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>5.6</v>
@@ -8824,10 +9652,20 @@
       <c r="AF85" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>351.0</v>
@@ -8922,10 +9760,20 @@
       <c r="AF86" t="n" s="8">
         <v>431.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>332.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>298.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>296.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>5963.0</v>
@@ -9020,10 +9868,20 @@
       <c r="AF87" t="n" s="8">
         <v>9489.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>9666.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>9952.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>10278.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>6314.0</v>
@@ -9118,10 +9976,20 @@
       <c r="AF88" t="n" s="8">
         <v>9920.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>9998.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>10250.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>10574.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>6.1</v>
@@ -9216,10 +10084,20 @@
       <c r="AF89" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>492.0</v>
@@ -9314,10 +10192,20 @@
       <c r="AF90" t="n" s="8">
         <v>1820.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>733.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>575.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>668.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>7520.0</v>
@@ -9412,10 +10300,20 @@
       <c r="AF91" t="n" s="8">
         <v>22866.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>24259.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>25510.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>26733.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>8012.0</v>
@@ -9510,10 +10408,20 @@
       <c r="AF92" t="n" s="8">
         <v>24686.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>24992.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>26085.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>27401.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>5.3</v>
@@ -9608,10 +10516,20 @@
       <c r="AF93" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>659.0</v>
@@ -9706,10 +10624,20 @@
       <c r="AF94" t="n" s="8">
         <v>1742.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>1081.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>988.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>1093.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>11666.0</v>
@@ -9804,10 +10732,20 @@
       <c r="AF95" t="n" s="8">
         <v>34394.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>35771.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>37053.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>37983.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>12325.0</v>
@@ -9902,10 +10840,20 @@
       <c r="AF96" t="n" s="8">
         <v>36136.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>36852.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>38041.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>39076.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>6.0</v>
@@ -10000,10 +10948,20 @@
       <c r="AF97" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>527.0</v>
@@ -10098,10 +11056,20 @@
       <c r="AF98" t="n" s="8">
         <v>1282.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>752.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>517.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>489.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>8326.0</v>
@@ -10196,10 +11164,20 @@
       <c r="AF99" t="n" s="8">
         <v>12227.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>12750.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>13593.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>14449.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>8853.0</v>
@@ -10294,10 +11272,20 @@
       <c r="AF100" t="n" s="8">
         <v>13509.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>13502.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>14110.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>14938.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>4.4</v>
@@ -10392,10 +11380,20 @@
       <c r="AF101" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>5144.0</v>
@@ -10490,10 +11488,20 @@
       <c r="AF102" t="n" s="8">
         <v>12305.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>7942.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>7542.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>9083.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>111588.0</v>
@@ -10588,10 +11596,20 @@
       <c r="AF103" t="n" s="8">
         <v>304982.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>323973.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>337405.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>344042.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>116732.0</v>
@@ -10686,10 +11704,20 @@
       <c r="AF104" t="n" s="8">
         <v>317287.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>331915.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>344947.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>353125.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>6.4</v>
@@ -10784,10 +11812,20 @@
       <c r="AF105" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>291.0</v>
@@ -10882,10 +11920,20 @@
       <c r="AF106" t="n" s="8">
         <v>1088.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>494.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>421.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>451.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>4249.0</v>
@@ -10980,10 +12028,20 @@
       <c r="AF107" t="n" s="8">
         <v>15417.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>16485.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>17303.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>18208.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>4540.0</v>
@@ -11078,10 +12136,20 @@
       <c r="AF108" t="n" s="8">
         <v>16505.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>16979.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>17724.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>18659.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>3.9</v>
@@ -11176,10 +12244,20 @@
       <c r="AF109" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>751.0</v>
@@ -11274,10 +12352,20 @@
       <c r="AF110" t="n" s="8">
         <v>4404.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>2491.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>2240.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>2538.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>18478.0</v>
@@ -11372,10 +12460,20 @@
       <c r="AF111" t="n" s="8">
         <v>75839.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>81376.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>85015.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>88839.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>19229.0</v>
@@ -11470,10 +12568,20 @@
       <c r="AF112" t="n" s="8">
         <v>80243.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>83867.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>87255.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>91377.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>8.6</v>
@@ -11568,10 +12676,20 @@
       <c r="AF113" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>81.0</v>
@@ -11666,10 +12784,20 @@
       <c r="AF114" t="n" s="8">
         <v>111.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>68.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>68.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>859.0</v>
@@ -11764,10 +12892,20 @@
       <c r="AF115" t="n" s="8">
         <v>1339.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>1411.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>1463.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>1528.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>940.0</v>
@@ -11862,10 +13000,20 @@
       <c r="AF116" t="n" s="8">
         <v>1450.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>1482.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>1531.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>1596.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>5.1</v>
@@ -11960,10 +13108,20 @@
       <c r="AF117" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>3929.0</v>
@@ -12058,10 +13216,20 @@
       <c r="AF118" t="n" s="8">
         <v>6443.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>3879.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>3398.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>3870.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>73647.0</v>
@@ -12156,10 +13324,20 @@
       <c r="AF119" t="n" s="8">
         <v>123855.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>127963.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>131650.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>135950.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>77576.0</v>
@@ -12254,6 +13432,16 @@
       <c r="AF120" t="n" s="8">
         <v>130298.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>131842.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>135048.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>139820.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -12264,7 +13452,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (10:49:09 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:42:13 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
